--- a/biology/Histoire de la zoologie et de la botanique/Howard_E._Bigelow/Howard_E._Bigelow.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Howard_E._Bigelow/Howard_E._Bigelow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Howard E. Bigelow est un mycologue américain, né en 1923 à Greenfield (Massachusetts) et mort en 1987.
 Il fait ses études à l’Oberlin College de 1941 à 1943. Il quitte ce collège pour combattre dans les rangs de l’armée américaine. Il retourne à Oberlin après la guerre et obtient son Bachelor of Arts en 1949 et son Master of Arts en 1951. Il étudie la botanique à l’université du Michigan sous la direction d’Alexander Hanchett Smith (1904-1986) et reçoit son doctorat en 1956. Il est l’auteur de travaux sur les champignons des genres Clitocybe de la famille des Tricholomataceae.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Courte biographie sur le site de l’International Plant Science Center</t>
         </is>
